--- a/2023.Roblox/할일.xlsx
+++ b/2023.Roblox/할일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MyProject\2023.Roblox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40FFA6-E98C-4960-892F-B13C77BFC26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95578E8B-A957-4745-A629-903DCFDBDFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="60" windowWidth="21060" windowHeight="14580" xr2:uid="{7A062810-E241-407C-A72D-8B364A557EEE}"/>
+    <workbookView xWindow="14175" yWindow="795" windowWidth="19140" windowHeight="14700" xr2:uid="{7A062810-E241-407C-A72D-8B364A557EEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,15 +83,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex)이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex)사운드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex)걷는 소리 추가</t>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP시 이명 사운드 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.08.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +122,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -130,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -138,20 +153,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,85 +560,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD30CFA-A2B7-4BD5-A34A-9555C1792283}">
-  <dimension ref="B2:AD6"/>
+  <dimension ref="B1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="45.625" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="45.625" customWidth="1"/>
     <col min="16" max="16" width="45.625" customWidth="1"/>
     <col min="22" max="22" width="45.625" customWidth="1"/>
     <col min="28" max="28" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
       <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="4"/>
       <c r="Z2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="4"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
+    <row r="3" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="7"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -630,10 +724,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
